--- a/old_database/crypto/bioSample/bioSample_3275.xlsx
+++ b/old_database/crypto/bioSample/bioSample_3275.xlsx
@@ -64,7 +64,7 @@
     <t>10.30.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3275</t>
   </si>
   <si>
     <t>WT</t>
